--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70F16A-7F19-0641-B176-27CEAF3CC783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E35DD1-793E-6247-9785-AB71B8048C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16260" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>

--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E35DD1-793E-6247-9785-AB71B8048C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACB4C76-9ED3-5A42-9E13-FB1FD411B759}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16260" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
+    <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16220" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,12 +226,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -245,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -266,9 +260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B814E9-C816-1443-9A7B-0446A390B7A6}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +619,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -640,13 +631,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -976,6 +967,22 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
@@ -985,16 +992,16 @@
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACB4C76-9ED3-5A42-9E13-FB1FD411B759}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7328705-1EDC-9D4E-8D47-7A53B324ACBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16220" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B814E9-C816-1443-9A7B-0446A390B7A6}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +804,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -884,7 +884,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -900,7 +900,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>

--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7328705-1EDC-9D4E-8D47-7A53B324ACBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D906AC4-AA52-5D4B-BCE8-7FEA473E6AC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16220" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -235,11 +241,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -253,13 +274,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B814E9-C816-1443-9A7B-0446A390B7A6}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,115 +625,115 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -769,10 +793,10 @@
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -785,12 +809,12 @@
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -801,10 +825,10 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -833,10 +857,10 @@
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -865,10 +889,10 @@
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -881,10 +905,10 @@
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -897,10 +921,10 @@
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -913,25 +937,25 @@
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -939,10 +963,10 @@
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>

--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D906AC4-AA52-5D4B-BCE8-7FEA473E6AC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A4217-1611-0449-9C64-FB5DFEC55543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16220" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+      <selection activeCell="E33" sqref="E33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,10 +906,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -922,10 +922,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>

--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A4217-1611-0449-9C64-FB5DFEC55543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CBC2C-96BE-CA4B-BB4E-F47623912B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16220" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>allocation</t>
   </si>
@@ -159,25 +159,10 @@
     <t>2018MD</t>
   </si>
   <si>
-    <t>2019GA</t>
-  </si>
-  <si>
-    <t>2019NC</t>
-  </si>
-  <si>
-    <t>2019MD</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>2019AL</t>
-  </si>
-  <si>
-    <t>2019VA</t>
   </si>
 </sst>
 </file>
@@ -600,17 +585,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B814E9-C816-1443-9A7B-0446A390B7A6}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="8" style="4" customWidth="1"/>
-    <col min="3" max="14" width="10.83203125" style="4"/>
+    <col min="3" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -711,31 +696,31 @@
       </c>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -757,23 +742,11 @@
       <c r="G23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H23" s="3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,28 +757,20 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="8"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -816,28 +781,20 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -848,12 +805,8 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,12 +817,8 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -880,12 +829,8 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -896,12 +841,8 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -911,13 +852,9 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -927,13 +864,9 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -944,22 +877,10 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -970,12 +891,8 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -986,46 +903,44 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5CBC2C-96BE-CA4B-BB4E-F47623912B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE75A22-C8F4-4549-96D7-5B95DD8D3808}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16220" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>
@@ -213,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -270,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B814E9-C816-1443-9A7B-0446A390B7A6}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,127 +751,129 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
@@ -876,51 +881,45 @@
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2019</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2017</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2018</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2019</v>
-      </c>
+      <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -928,15 +927,15 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
+      <c r="A42" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>

--- a/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
+++ b/Data_Flow_Team/SQL_Database/Data_Import/Progresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amponcet/Documents/GitHub/CROWN/Data_Flow_Team/SQL_Database/Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE75A22-C8F4-4549-96D7-5B95DD8D3808}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F115FBA2-B948-524C-B470-E0633DB728E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="460" windowWidth="23640" windowHeight="16220" xr2:uid="{872CB2A6-88F1-1B47-8023-944840A535F8}"/>
   </bookViews>
@@ -186,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -273,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B814E9-C816-1443-9A7B-0446A390B7A6}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,13 +896,13 @@
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
